--- a/data/trans_dic/P25A_5_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_5_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por asma</t>
+          <t>Población con limitación por asma (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,42 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,37 +667,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,0</t>
+          <t>0,0; 16,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 9,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 8,71</t>
+          <t>0,0; 8,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 7,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,19</t>
+          <t>0,0; 7,27</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,74</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,0</t>
+          <t>0,0; 14,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0,0; 12,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 15,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 6,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,95</t>
+          <t>0,0; 13,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 6,95</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,09</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,08</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 9,72</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,75</t>
+          <t>0,0; 8,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,76</t>
+          <t>0,0; 9,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,3</t>
+          <t>0,0; 12,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 8,18</t>
+          <t>0,0; 5,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 9,05</t>
+          <t>0,0; 10,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,23</t>
+          <t>1,03; 11,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,83</t>
+          <t>0,7; 7,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,89</t>
+          <t>0,0; 3,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 7,04</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 7,74</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 7,42</t>
         </is>
       </c>
     </row>
@@ -967,42 +1082,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,21</t>
+          <t>0,0; 8,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,83</t>
+          <t>1,15; 10,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,44</t>
+          <t>0,0; 7,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,86</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,76</t>
+          <t>0,0; 6,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,44</t>
+          <t>0,92; 8,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,62</t>
+          <t>1,36; 9,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,29</t>
+          <t>0,0; 2,82</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 5,56</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 7,43</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 6,3</t>
         </is>
       </c>
     </row>
@@ -1077,42 +1222,57 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>3,65%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,19</t>
+          <t>0,0; 23,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,6</t>
+          <t>0,0; 14,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 9,41</t>
+          <t>0,0; 9,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,23</t>
+          <t>0,0; 8,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 11,06</t>
+          <t>0,0; 12,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,9</t>
+          <t>0,0; 6,39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,78</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 21,71</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,91</t>
         </is>
       </c>
     </row>
@@ -1187,42 +1362,57 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,84</t>
+          <t>0,0; 12,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,14</t>
+          <t>0,0; 12,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 12,96</t>
+          <t>0,0; 10,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 24,4</t>
+          <t>0,0; 22,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,73</t>
+          <t>0,0; 23,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 7,4</t>
+          <t>0,0; 24,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,91; 14,61</t>
+          <t>1,94; 46,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 8,04</t>
+          <t>0,0; 12,84</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 14,38</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 14,49</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 29,99</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,27</t>
+          <t>0,33; 3,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,83</t>
+          <t>0,3; 2,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,9</t>
+          <t>1,52; 7,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,45</t>
+          <t>0,59; 4,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,11</t>
+          <t>0,76; 4,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,29</t>
+          <t>1,12; 5,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,5</t>
+          <t>1,42; 5,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,06</t>
+          <t>2,47; 15,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,14</t>
+          <t>0,74; 3,03</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 3,18</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 5,49</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 7,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por asma (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17727</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10790</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17522</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10706</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6898</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5514</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6689</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6132</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6898</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5514</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12821</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 24596</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18971</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 35164</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8084</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22175</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 23210</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11035</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19877</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2640; 37901</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2307</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2184</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6426</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5762</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9280</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6379</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8069</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11465</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12806</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11650</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13067</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22140</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14602</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21866</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2065; 22417</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1670; 17283</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14230</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1604; 24198</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3762; 26174</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5026; 31146</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6994</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2724</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2263</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3557</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5154</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8873</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2263</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>7697</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12148</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11597</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14428</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1790; 16377</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 15987</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11322</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12529</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1581; 13947</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2898; 21128</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11412</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2065; 19307</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5136; 24414</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4588; 26079</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7914</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5142</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1587</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5142</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9501</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 28420</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16450</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8888</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8069</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16649</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 17331</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8542</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 46866</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 17229</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2210</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2762</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9477</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5576</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7788</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>32757</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9477</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7628</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9998</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>35519</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10482</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11227</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14346</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 30500</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 24950</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 26616</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4090; 97212</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 31698</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 27673</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2279; 29087</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>7507; 104558</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10373</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8499</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>24817</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>18601</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>19780</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>20814</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>23809</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>59142</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>30154</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>29313</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>48627</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>77743</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2971; 31169</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2271; 19418</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>11985; 55955</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6171; 47435</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>7862; 47462</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9397; 43378</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>11713; 47253</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>27383; 171328</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>14276; 58377</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>14636; 51061</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>28643; 88613</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>41549; 160613</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>